--- a/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.77141632775934</v>
+        <v>0.8459148714576941</v>
       </c>
       <c r="C2">
-        <v>0.3424013202579772</v>
+        <v>0.1045220922067642</v>
       </c>
       <c r="D2">
-        <v>0.007903912039878946</v>
+        <v>0.1298503742565202</v>
       </c>
       <c r="E2">
-        <v>0.04799627418659647</v>
+        <v>0.09858257843566776</v>
       </c>
       <c r="F2">
-        <v>2.564917691935378</v>
+        <v>0.9304076359850839</v>
       </c>
       <c r="G2">
-        <v>0.0008242647808032339</v>
+        <v>0.0008260875932302372</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1104548883087801</v>
+        <v>0.1064941808734048</v>
       </c>
       <c r="K2">
-        <v>0.4671499400820593</v>
+        <v>0.8559509795910856</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4677417570220896</v>
+        <v>0.3057397906661379</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.831521850231098</v>
+        <v>2.307420750029735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.534577205117444</v>
+        <v>0.7346493471862061</v>
       </c>
       <c r="C3">
-        <v>0.2953020394683392</v>
+        <v>0.09387196010908383</v>
       </c>
       <c r="D3">
-        <v>0.007270855363492146</v>
+        <v>0.1154236422275403</v>
       </c>
       <c r="E3">
-        <v>0.04520051910620815</v>
+        <v>0.09088710477387352</v>
       </c>
       <c r="F3">
-        <v>2.379290893552763</v>
+        <v>0.9090220257732469</v>
       </c>
       <c r="G3">
-        <v>0.0008320489302118494</v>
+        <v>0.0008300876897114675</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1045157007620787</v>
+        <v>0.1015231259342428</v>
       </c>
       <c r="K3">
-        <v>0.4039930926955222</v>
+        <v>0.7447428126619684</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4082924584488197</v>
+        <v>0.2668659109299796</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.699232245844215</v>
+        <v>2.290465076590436</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.39126859157318</v>
+        <v>0.6665226816311929</v>
       </c>
       <c r="C4">
-        <v>0.2667479341242824</v>
+        <v>0.08732425355366047</v>
       </c>
       <c r="D4">
-        <v>0.0068868984095527</v>
+        <v>0.1066446752534205</v>
       </c>
       <c r="E4">
-        <v>0.04354839078527561</v>
+        <v>0.08626848566953527</v>
       </c>
       <c r="F4">
-        <v>2.269597087228192</v>
+        <v>0.8974387116038471</v>
       </c>
       <c r="G4">
-        <v>0.0008369604260198299</v>
+        <v>0.0008326257266753847</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1010353605896981</v>
+        <v>0.09862430138366562</v>
       </c>
       <c r="K4">
-        <v>0.3657588215567102</v>
+        <v>0.6765646361225208</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3724041342606057</v>
+        <v>0.2431414923043036</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.621123098330841</v>
+        <v>2.284211492599809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.333331455253756</v>
+        <v>0.6387973477209812</v>
       </c>
       <c r="C5">
-        <v>0.2551895926239638</v>
+        <v>0.08465308080852196</v>
       </c>
       <c r="D5">
-        <v>0.006731635278809378</v>
+        <v>0.1030854632007987</v>
       </c>
       <c r="E5">
-        <v>0.04289031784392705</v>
+        <v>0.08441163397120732</v>
       </c>
       <c r="F5">
-        <v>2.2258803055594</v>
+        <v>0.8930914568588051</v>
       </c>
       <c r="G5">
-        <v>0.0008389964294596874</v>
+        <v>0.0008336809658597788</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09965583885506391</v>
+        <v>0.09747976193983021</v>
       </c>
       <c r="K5">
-        <v>0.3502964862532423</v>
+        <v>0.6487972122855439</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3579159324324266</v>
+        <v>0.2335053535330971</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.590008477484105</v>
+        <v>2.28266717114478</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.323737053485786</v>
+        <v>0.6341954880606409</v>
       </c>
       <c r="C6">
-        <v>0.2532746407296145</v>
+        <v>0.08420933545469467</v>
       </c>
       <c r="D6">
-        <v>0.006705927039631021</v>
+        <v>0.1024955180368465</v>
       </c>
       <c r="E6">
-        <v>0.04278193368565653</v>
+        <v>0.08410478941387112</v>
       </c>
       <c r="F6">
-        <v>2.218678049572247</v>
+        <v>0.8923916732531509</v>
       </c>
       <c r="G6">
-        <v>0.0008393366290600868</v>
+        <v>0.0008338574642985745</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09942902463064485</v>
+        <v>0.09729188030877367</v>
       </c>
       <c r="K6">
-        <v>0.3477356199331538</v>
+        <v>0.6441871096990468</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3555179340415364</v>
+        <v>0.2319070701412969</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.584883231027561</v>
+        <v>2.282470211105718</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.390485446153292</v>
+        <v>0.6661486332161246</v>
       </c>
       <c r="C7">
-        <v>0.2665917575273227</v>
+        <v>0.08728824205735464</v>
       </c>
       <c r="D7">
-        <v>0.006884799588117829</v>
+        <v>0.1065966024850127</v>
       </c>
       <c r="E7">
-        <v>0.04353945561403805</v>
+        <v>0.08624334310468029</v>
       </c>
       <c r="F7">
-        <v>2.269003638909524</v>
+        <v>0.8973785932873497</v>
       </c>
       <c r="G7">
-        <v>0.0008369877428011075</v>
+        <v>0.0008326398725566096</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1010166029074639</v>
+        <v>0.09860871925022963</v>
       </c>
       <c r="K7">
-        <v>0.3655498348194115</v>
+        <v>0.6761901045725267</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3722082107460594</v>
+        <v>0.2430114132054513</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.620700665280438</v>
+        <v>2.284186653034681</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.689272800007728</v>
+        <v>0.8075039782994509</v>
       </c>
       <c r="C8">
-        <v>0.3260768458602286</v>
+        <v>0.100851188103249</v>
       </c>
       <c r="D8">
-        <v>0.007684652692796945</v>
+        <v>0.1248586236948483</v>
       </c>
       <c r="E8">
-        <v>0.04701826966801725</v>
+        <v>0.09590616678565311</v>
       </c>
       <c r="F8">
-        <v>2.499967013941315</v>
+        <v>0.9227027418840805</v>
       </c>
       <c r="G8">
-        <v>0.0008269221957613811</v>
+        <v>0.0008274500364610192</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1083705997947675</v>
+        <v>0.1047471903972408</v>
       </c>
       <c r="K8">
-        <v>0.4452489129611834</v>
+        <v>0.8175782971509875</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.447105092522385</v>
+        <v>0.2923033123703007</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.785218586079807</v>
+        <v>2.300686080566237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.295377745018868</v>
+        <v>1.086762976652153</v>
       </c>
       <c r="C9">
-        <v>0.4463310052081226</v>
+        <v>0.1274207030599115</v>
       </c>
       <c r="D9">
-        <v>0.009290973870644592</v>
+        <v>0.1613763086485989</v>
       </c>
       <c r="E9">
-        <v>0.05440301655350055</v>
+        <v>0.1157713269176348</v>
       </c>
       <c r="F9">
-        <v>2.991438569813965</v>
+        <v>0.9854121328081362</v>
       </c>
       <c r="G9">
-        <v>0.0008081650128682767</v>
+        <v>0.0008179059859363874</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1242644372160981</v>
+        <v>0.1180895916478235</v>
       </c>
       <c r="K9">
-        <v>0.6067782835165687</v>
+        <v>1.09618058364444</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5997344243384788</v>
+        <v>0.3903309398801227</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.135960360319061</v>
+        <v>2.367999663372444</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.758325851396592</v>
+        <v>1.29402095903697</v>
       </c>
       <c r="C10">
-        <v>0.5379865098152834</v>
+        <v>0.1469862634537407</v>
       </c>
       <c r="D10">
-        <v>0.01049548982897619</v>
+        <v>0.1887540098508822</v>
       </c>
       <c r="E10">
-        <v>0.06025097152202363</v>
+        <v>0.1310320826605285</v>
       </c>
       <c r="F10">
-        <v>3.383110025854165</v>
+        <v>1.040578546286596</v>
       </c>
       <c r="G10">
-        <v>0.0007948807560692957</v>
+        <v>0.0008112547324389276</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.137075618380365</v>
+        <v>0.1288176433821633</v>
       </c>
       <c r="K10">
-        <v>0.7300836869381229</v>
+        <v>1.302469181447179</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7167605481745838</v>
+        <v>0.4635187029836274</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.41603895456673</v>
+        <v>2.441680866849595</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.974124790913663</v>
+        <v>1.38896022897589</v>
       </c>
       <c r="C11">
-        <v>0.5806852381344356</v>
+        <v>0.1559119299766394</v>
       </c>
       <c r="D11">
-        <v>0.01104933935092234</v>
+        <v>0.2013559496403587</v>
       </c>
       <c r="E11">
-        <v>0.06302314338345383</v>
+        <v>0.1381446640915804</v>
       </c>
       <c r="F11">
-        <v>3.56973300785728</v>
+        <v>1.067920975309576</v>
       </c>
       <c r="G11">
-        <v>0.0007889196711254455</v>
+        <v>0.000808301315605112</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1432099005456919</v>
+        <v>0.133929988562457</v>
       </c>
       <c r="K11">
-        <v>0.7875504680302612</v>
+        <v>1.396850903098567</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7714121403055572</v>
+        <v>0.4971470646031335</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.549648541287425</v>
+        <v>2.481155421641745</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.056719335103196</v>
+        <v>1.425023177521581</v>
       </c>
       <c r="C12">
-        <v>0.5970257491669315</v>
+        <v>0.1592967967052914</v>
       </c>
       <c r="D12">
-        <v>0.01125998904444003</v>
+        <v>0.2061516690100831</v>
       </c>
       <c r="E12">
-        <v>0.06409087826350657</v>
+        <v>0.1408647664715197</v>
       </c>
       <c r="F12">
-        <v>3.641788307396638</v>
+        <v>1.078622209927971</v>
       </c>
       <c r="G12">
-        <v>0.0007866717499365811</v>
+        <v>0.0008071928101892795</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1455825373191999</v>
+        <v>0.1359020332718472</v>
       </c>
       <c r="K12">
-        <v>0.8095441491802262</v>
+        <v>1.432685019938901</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7923442359806856</v>
+        <v>0.5099364455705455</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.601261382851192</v>
+        <v>2.497022347497079</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.038889942134404</v>
+        <v>1.417251131062983</v>
       </c>
       <c r="C13">
-        <v>0.593498435279912</v>
+        <v>0.1585675650374156</v>
       </c>
       <c r="D13">
-        <v>0.01121457965394868</v>
+        <v>0.2051177336757775</v>
       </c>
       <c r="E13">
-        <v>0.06386009072091525</v>
+        <v>0.1402777182485515</v>
       </c>
       <c r="F13">
-        <v>3.626205366890986</v>
+        <v>1.076301660541489</v>
       </c>
       <c r="G13">
-        <v>0.0007871555022678719</v>
+        <v>0.0008074311151874472</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1450692389225097</v>
+        <v>0.1354756664847372</v>
       </c>
       <c r="K13">
-        <v>0.8047964890708954</v>
+        <v>1.42496305910538</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7878250346805586</v>
+        <v>0.5071794599233712</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.590098191136278</v>
+        <v>2.4935632194547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.980901543094092</v>
+        <v>1.391924812207293</v>
       </c>
       <c r="C14">
-        <v>0.5820259787961106</v>
+        <v>0.1561902988260044</v>
       </c>
       <c r="D14">
-        <v>0.01106665073600865</v>
+        <v>0.201750008258017</v>
       </c>
       <c r="E14">
-        <v>0.06311061478720248</v>
+        <v>0.1383678997242619</v>
       </c>
       <c r="F14">
-        <v>3.57563222957657</v>
+        <v>1.068794268452507</v>
       </c>
       <c r="G14">
-        <v>0.0007887345592320183</v>
+        <v>0.0008082099229737553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1434040675550463</v>
+        <v>0.1340914897951535</v>
       </c>
       <c r="K14">
-        <v>0.7893550329615238</v>
+        <v>1.399797020474296</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.773129287740403</v>
+        <v>0.4981981100751796</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.553873584656984</v>
+        <v>2.482442017197997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.94550015186411</v>
+        <v>1.376426761294994</v>
       </c>
       <c r="C15">
-        <v>0.5750219547849724</v>
+        <v>0.1547348341720181</v>
       </c>
       <c r="D15">
-        <v>0.0109761621024127</v>
+        <v>0.1996903317338052</v>
       </c>
       <c r="E15">
-        <v>0.06265393944478959</v>
+        <v>0.1372016293061549</v>
       </c>
       <c r="F15">
-        <v>3.544840524884677</v>
+        <v>1.06424174224955</v>
       </c>
       <c r="G15">
-        <v>0.0007897029277361575</v>
+        <v>0.000808688237661781</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.14239075615194</v>
+        <v>0.1332484287650928</v>
       </c>
       <c r="K15">
-        <v>0.7799280426565929</v>
+        <v>1.384394812156785</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7641595996760344</v>
+        <v>0.492704156427024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.531821522167604</v>
+        <v>2.475751534007202</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.744338157652919</v>
+        <v>1.287831098812177</v>
       </c>
       <c r="C16">
-        <v>0.5352184871225916</v>
+        <v>0.1464035647830713</v>
       </c>
       <c r="D16">
-        <v>0.01045941878601298</v>
+        <v>0.1879336167437913</v>
       </c>
       <c r="E16">
-        <v>0.06007221132439255</v>
+        <v>0.1305708736979163</v>
       </c>
       <c r="F16">
-        <v>3.37109788884112</v>
+        <v>1.038838893479337</v>
       </c>
       <c r="G16">
-        <v>0.0007952717798604958</v>
+        <v>0.0008114491572019228</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1366813626743308</v>
+        <v>0.1284884394407655</v>
       </c>
       <c r="K16">
-        <v>0.7263586186286801</v>
+        <v>1.296313333455316</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7132201693238756</v>
+        <v>0.4613283270839688</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.407442464155565</v>
+        <v>2.439226191099834</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.622350444591007</v>
+        <v>1.233660460987352</v>
       </c>
       <c r="C17">
-        <v>0.5110757192969118</v>
+        <v>0.1412999367684193</v>
       </c>
       <c r="D17">
-        <v>0.01014396946064267</v>
+        <v>0.1807607353396463</v>
       </c>
       <c r="E17">
-        <v>0.05851833830332964</v>
+        <v>0.126548292239967</v>
       </c>
       <c r="F17">
-        <v>3.266791362935493</v>
+        <v>1.023847211029349</v>
       </c>
       <c r="G17">
-        <v>0.0007987074829703955</v>
+        <v>0.0008131610543486694</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1332611313975463</v>
+        <v>0.1256296722741368</v>
       </c>
       <c r="K17">
-        <v>0.6938708757027143</v>
+        <v>1.242427620640797</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6823554408852743</v>
+        <v>0.442170792008227</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.332813112275844</v>
+        <v>2.418387584825894</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.55266739297349</v>
+        <v>1.202563646159746</v>
       </c>
       <c r="C18">
-        <v>0.4972821480544951</v>
+        <v>0.1383667531275421</v>
       </c>
       <c r="D18">
-        <v>0.009963082191109862</v>
+        <v>0.176648831191315</v>
       </c>
       <c r="E18">
-        <v>0.05763500015637035</v>
+        <v>0.1242505056072325</v>
       </c>
       <c r="F18">
-        <v>3.207581013015329</v>
+        <v>1.015434342010053</v>
       </c>
       <c r="G18">
-        <v>0.0008006914833859929</v>
+        <v>0.0008141525268149444</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1313223699733044</v>
+        <v>0.124007056582073</v>
       </c>
       <c r="K18">
-        <v>0.6753118562116995</v>
+        <v>1.211483773591851</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6647339232312817</v>
+        <v>0.4311829632826019</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.290463501654031</v>
+        <v>2.406958453013516</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.529152873532723</v>
+        <v>1.192044724467962</v>
       </c>
       <c r="C19">
-        <v>0.4926270362006449</v>
+        <v>0.1373739830388274</v>
       </c>
       <c r="D19">
-        <v>0.009901929718996172</v>
+        <v>0.1752589017802251</v>
       </c>
       <c r="E19">
-        <v>0.05733765088280762</v>
+        <v>0.1234751794793887</v>
       </c>
       <c r="F19">
-        <v>3.187663201259483</v>
+        <v>1.012621240285895</v>
       </c>
       <c r="G19">
-        <v>0.0008013646524609269</v>
+        <v>0.0008144894109395424</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1306706659979398</v>
+        <v>0.1234613086978626</v>
       </c>
       <c r="K19">
-        <v>0.66904892927802</v>
+        <v>1.201014797617717</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6587891441967528</v>
+        <v>0.4274678091260142</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.276219844337021</v>
+        <v>2.403182532550971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.635285578233834</v>
+        <v>1.239420615502127</v>
       </c>
       <c r="C20">
-        <v>0.5136359780518092</v>
+        <v>0.1418429808734061</v>
       </c>
       <c r="D20">
-        <v>0.01017749213839991</v>
+        <v>0.1815228611299489</v>
       </c>
       <c r="E20">
-        <v>0.05868266056073779</v>
+        <v>0.1269748421478241</v>
       </c>
       <c r="F20">
-        <v>3.277812661140757</v>
+        <v>1.02542120272868</v>
       </c>
       <c r="G20">
-        <v>0.0007983409477644658</v>
+        <v>0.0008129781161580758</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1336222359786348</v>
+        <v>0.1259317307986905</v>
       </c>
       <c r="K20">
-        <v>0.6973158628275513</v>
+        <v>1.248158580566837</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.685627252652381</v>
+        <v>0.4442068794420351</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.34069713540859</v>
+        <v>2.420547838920697</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.997909261910991</v>
+        <v>1.399360597100809</v>
       </c>
       <c r="C21">
-        <v>0.5853908319837728</v>
+        <v>0.1568884154707462</v>
       </c>
       <c r="D21">
-        <v>0.01111007544392351</v>
+        <v>0.2027385293373811</v>
       </c>
       <c r="E21">
-        <v>0.06333025013815075</v>
+        <v>0.1389281160154425</v>
       </c>
       <c r="F21">
-        <v>3.590447731311883</v>
+        <v>1.070989746209136</v>
       </c>
       <c r="G21">
-        <v>0.0007882705169654282</v>
+        <v>0.000807980904060036</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.143891770958426</v>
+        <v>0.134497053242832</v>
       </c>
       <c r="K21">
-        <v>0.7938839621903497</v>
+        <v>1.407186215250732</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7774390758248728</v>
+        <v>0.5008345987083374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.564484924305674</v>
+        <v>2.485683130450809</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.240083189544464</v>
+        <v>1.5045494425068</v>
       </c>
       <c r="C22">
-        <v>0.6333011728298743</v>
+        <v>0.1667507755183522</v>
       </c>
       <c r="D22">
-        <v>0.01172497748128976</v>
+        <v>0.216743214619882</v>
       </c>
       <c r="E22">
-        <v>0.06647352204668167</v>
+        <v>0.146897173457976</v>
       </c>
       <c r="F22">
-        <v>3.802941611335058</v>
+        <v>1.10280793989898</v>
       </c>
       <c r="G22">
-        <v>0.0007817424551638926</v>
+        <v>0.0008047723233289606</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1508964343310026</v>
+        <v>0.1403068795293834</v>
       </c>
       <c r="K22">
-        <v>0.8583698852427233</v>
+        <v>1.511675151348442</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8388416633659688</v>
+        <v>0.5381685347185012</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.716745859888846</v>
+        <v>2.533640291947421</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.110309958493872</v>
+        <v>1.448341907119698</v>
       </c>
       <c r="C23">
-        <v>0.6076278318552681</v>
+        <v>0.1614839135673947</v>
       </c>
       <c r="D23">
-        <v>0.01139626927435344</v>
+        <v>0.2092550922237706</v>
       </c>
       <c r="E23">
-        <v>0.06478553625840888</v>
+        <v>0.1426288059824472</v>
       </c>
       <c r="F23">
-        <v>3.688720348205777</v>
+        <v>1.085631193626384</v>
       </c>
       <c r="G23">
-        <v>0.0007852225663918753</v>
+        <v>0.0008064797271665715</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1471290578937285</v>
+        <v>0.1371857221371684</v>
       </c>
       <c r="K23">
-        <v>0.8238142994006097</v>
+        <v>1.455850974970843</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8059299593373126</v>
+        <v>0.5182106105053634</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.634886220802898</v>
+        <v>2.507529941121078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.629436214300654</v>
+        <v>1.236816305754274</v>
       </c>
       <c r="C24">
-        <v>0.5124782178636451</v>
+        <v>0.1415974677393592</v>
       </c>
       <c r="D24">
-        <v>0.01016233508067899</v>
+        <v>0.1811782672332924</v>
       </c>
       <c r="E24">
-        <v>0.05860833944677779</v>
+        <v>0.1267819528491181</v>
       </c>
       <c r="F24">
-        <v>3.272827587366976</v>
+        <v>1.024708961090013</v>
       </c>
       <c r="G24">
-        <v>0.0007985066308900124</v>
+        <v>0.0008130607997757357</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1334588951259192</v>
+        <v>0.1257951051592485</v>
       </c>
       <c r="K24">
-        <v>0.6957580172435769</v>
+        <v>1.245567503384422</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6841476858059039</v>
+        <v>0.4432862835533271</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.337131046704386</v>
+        <v>2.419569475642191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.128732661453398</v>
+        <v>1.010913056355065</v>
       </c>
       <c r="C25">
-        <v>0.4133063418035761</v>
+        <v>0.1202298014101189</v>
       </c>
       <c r="D25">
-        <v>0.008852289187064599</v>
+        <v>0.1514100199358666</v>
       </c>
       <c r="E25">
-        <v>0.05233729815184418</v>
+        <v>0.1102885099701005</v>
       </c>
       <c r="F25">
-        <v>2.853668290176103</v>
+        <v>0.9669374537758699</v>
       </c>
       <c r="G25">
-        <v>0.0008131441592131342</v>
+        <v>0.0008204226414373061</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1197841602501839</v>
+        <v>0.1143275140576989</v>
       </c>
       <c r="K25">
-        <v>0.5623804880681149</v>
+        <v>1.020590291324282</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.557694242335451</v>
+        <v>0.3636324579426145</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.037556379455751</v>
+        <v>2.345757633967423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8459148714576941</v>
+        <v>0.8288003896905423</v>
       </c>
       <c r="C2">
-        <v>0.1045220922067642</v>
+        <v>0.1589400865784114</v>
       </c>
       <c r="D2">
-        <v>0.1298503742565202</v>
+        <v>0.1833105062261495</v>
       </c>
       <c r="E2">
-        <v>0.09858257843566776</v>
+        <v>0.1108367796726881</v>
       </c>
       <c r="F2">
-        <v>0.9304076359850839</v>
+        <v>0.5960617852200798</v>
       </c>
       <c r="G2">
-        <v>0.0008260875932302372</v>
+        <v>0.3281089096664687</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001753311546935699</v>
       </c>
       <c r="J2">
-        <v>0.1064941808734048</v>
+        <v>0.3125160067057635</v>
       </c>
       <c r="K2">
-        <v>0.8559509795910856</v>
+        <v>0.2900587858557575</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09803657702986612</v>
       </c>
       <c r="M2">
-        <v>0.3057397906661379</v>
+        <v>0.9229734455946641</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.307420750029735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3270277192948114</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.296926222340844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7346493471862061</v>
+        <v>0.7237764146760242</v>
       </c>
       <c r="C3">
-        <v>0.09387196010908383</v>
+        <v>0.1418039171229566</v>
       </c>
       <c r="D3">
-        <v>0.1154236422275403</v>
+        <v>0.1644371674174181</v>
       </c>
       <c r="E3">
-        <v>0.09088710477387352</v>
+        <v>0.1025751571653259</v>
       </c>
       <c r="F3">
-        <v>0.9090220257732469</v>
+        <v>0.586260347731411</v>
       </c>
       <c r="G3">
-        <v>0.0008300876897114675</v>
+        <v>0.3271098976278211</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002703798012938741</v>
       </c>
       <c r="J3">
-        <v>0.1015231259342428</v>
+        <v>0.3169998797874598</v>
       </c>
       <c r="K3">
-        <v>0.7447428126619684</v>
+        <v>0.297729896447894</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09385474341087274</v>
       </c>
       <c r="M3">
-        <v>0.2668659109299796</v>
+        <v>0.8089137840426872</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.290465076590436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2853162001487064</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.303892058645786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6665226816311929</v>
+        <v>0.6590373902220961</v>
       </c>
       <c r="C4">
-        <v>0.08732425355366047</v>
+        <v>0.1314173642958707</v>
       </c>
       <c r="D4">
-        <v>0.1066446752534205</v>
+        <v>0.1530062898425228</v>
       </c>
       <c r="E4">
-        <v>0.08626848566953527</v>
+        <v>0.09762546375168668</v>
       </c>
       <c r="F4">
-        <v>0.8974387116038471</v>
+        <v>0.5809822599109467</v>
       </c>
       <c r="G4">
-        <v>0.0008326257266753847</v>
+        <v>0.3269802437798432</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003476422878172514</v>
       </c>
       <c r="J4">
-        <v>0.09862430138366562</v>
+        <v>0.3200788259574665</v>
       </c>
       <c r="K4">
-        <v>0.6765646361225208</v>
+        <v>0.3027526761745101</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0914194430815165</v>
       </c>
       <c r="M4">
-        <v>0.2431414923043036</v>
+        <v>0.7388815067061785</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.284211492599809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2598004538320886</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.30986893698946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6387973477209812</v>
+        <v>0.6322528544000363</v>
       </c>
       <c r="C5">
-        <v>0.08465308080852196</v>
+        <v>0.1275952869197141</v>
       </c>
       <c r="D5">
-        <v>0.1030854632007987</v>
+        <v>0.1484767801166385</v>
       </c>
       <c r="E5">
-        <v>0.08441163397120732</v>
+        <v>0.09564742959927486</v>
       </c>
       <c r="F5">
-        <v>0.8930914568588051</v>
+        <v>0.5785968027420196</v>
       </c>
       <c r="G5">
-        <v>0.0008336809658597788</v>
+        <v>0.3267097451698291</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003912661836851239</v>
       </c>
       <c r="J5">
-        <v>0.09747976193983021</v>
+        <v>0.321236814655407</v>
       </c>
       <c r="K5">
-        <v>0.6487972122855439</v>
+        <v>0.3046126376012026</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0904338530540727</v>
       </c>
       <c r="M5">
-        <v>0.2335053535330971</v>
+        <v>0.7106654809834794</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.28266717114478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2495232254055182</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.311638384341734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6341954880606409</v>
+        <v>0.62738923032299</v>
       </c>
       <c r="C6">
-        <v>0.08420933545469467</v>
+        <v>0.1274285334050944</v>
       </c>
       <c r="D6">
-        <v>0.1024955180368465</v>
+        <v>0.1478385365446968</v>
       </c>
       <c r="E6">
-        <v>0.08410478941387112</v>
+        <v>0.09533233776695482</v>
       </c>
       <c r="F6">
-        <v>0.8923916732531509</v>
+        <v>0.57770469784856</v>
       </c>
       <c r="G6">
-        <v>0.0008338574642985745</v>
+        <v>0.3262626789005125</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004087780883462067</v>
       </c>
       <c r="J6">
-        <v>0.09729188030877367</v>
+        <v>0.3212178752282213</v>
       </c>
       <c r="K6">
-        <v>0.6441871096990468</v>
+        <v>0.3046045019179626</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09024135779213793</v>
       </c>
       <c r="M6">
-        <v>0.2319070701412969</v>
+        <v>0.7063819282308543</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.282470211105718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2479399161778062</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.310636971361518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6661486332161246</v>
+        <v>0.6575474114990811</v>
       </c>
       <c r="C7">
-        <v>0.08728824205735464</v>
+        <v>0.1326409460155702</v>
       </c>
       <c r="D7">
-        <v>0.1065966024850127</v>
+        <v>0.153250235156662</v>
       </c>
       <c r="E7">
-        <v>0.08624334310468029</v>
+        <v>0.09763041230806735</v>
       </c>
       <c r="F7">
-        <v>0.8973785932873497</v>
+        <v>0.5795673081624244</v>
       </c>
       <c r="G7">
-        <v>0.0008326398725566096</v>
+        <v>0.3258604196374648</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00373922941716831</v>
       </c>
       <c r="J7">
-        <v>0.09860871925022963</v>
+        <v>0.3195060005439032</v>
       </c>
       <c r="K7">
-        <v>0.6761901045725267</v>
+        <v>0.3019017574183653</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09132221333352675</v>
       </c>
       <c r="M7">
-        <v>0.2430114132054513</v>
+        <v>0.7396031491887953</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.284186653034681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2599953680324703</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.306293696242292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8075039782994509</v>
+        <v>0.7911301650835867</v>
       </c>
       <c r="C8">
-        <v>0.100851188103249</v>
+        <v>0.1547057253389568</v>
       </c>
       <c r="D8">
-        <v>0.1248586236948483</v>
+        <v>0.1771739461559463</v>
       </c>
       <c r="E8">
-        <v>0.09590616678565311</v>
+        <v>0.1080038730656518</v>
       </c>
       <c r="F8">
-        <v>0.9227027418840805</v>
+        <v>0.590705069486269</v>
       </c>
       <c r="G8">
-        <v>0.0008274500364610192</v>
+        <v>0.3261942432009093</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002348681192057889</v>
       </c>
       <c r="J8">
-        <v>0.1047471903972408</v>
+        <v>0.3132237549359829</v>
       </c>
       <c r="K8">
-        <v>0.8175782971509875</v>
+        <v>0.2914937221668747</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09645595422940545</v>
       </c>
       <c r="M8">
-        <v>0.2923033123703007</v>
+        <v>0.88511643176966</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.300686080566237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3130668206710325</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.294244880198519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.086762976652153</v>
+        <v>1.053248860423196</v>
       </c>
       <c r="C9">
-        <v>0.1274207030599115</v>
+        <v>0.19687445160001</v>
       </c>
       <c r="D9">
-        <v>0.1613763086485989</v>
+        <v>0.2248900731527925</v>
       </c>
       <c r="E9">
-        <v>0.1157713269176348</v>
+        <v>0.1293319850264005</v>
       </c>
       <c r="F9">
-        <v>0.9854121328081362</v>
+        <v>0.6211743210513632</v>
       </c>
       <c r="G9">
-        <v>0.0008179059859363874</v>
+        <v>0.3328810061621184</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0008250579095996358</v>
       </c>
       <c r="J9">
-        <v>0.1180895916478235</v>
+        <v>0.3046155012913303</v>
       </c>
       <c r="K9">
-        <v>1.09618058364444</v>
+        <v>0.275195591758699</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1077869132822826</v>
       </c>
       <c r="M9">
-        <v>0.3903309398801227</v>
+        <v>1.168764054549655</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.367999663372444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4174420646376689</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.291114448688489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.29402095903697</v>
+        <v>1.244316080442104</v>
       </c>
       <c r="C10">
-        <v>0.1469862634537407</v>
+        <v>0.2294538405379711</v>
       </c>
       <c r="D10">
-        <v>0.1887540098508822</v>
+        <v>0.2610720845992773</v>
       </c>
       <c r="E10">
-        <v>0.1310320826605285</v>
+        <v>0.1457518919067553</v>
       </c>
       <c r="F10">
-        <v>1.040578546286596</v>
+        <v>0.647087455327231</v>
       </c>
       <c r="G10">
-        <v>0.0008112547324389276</v>
+        <v>0.3400360078453701</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009358105161005881</v>
       </c>
       <c r="J10">
-        <v>0.1288176433821633</v>
+        <v>0.2997710518928756</v>
       </c>
       <c r="K10">
-        <v>1.302469181447179</v>
+        <v>0.2645056986769561</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1168446202531896</v>
       </c>
       <c r="M10">
-        <v>0.4635187029836274</v>
+        <v>1.37835622630999</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.441680866849595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4950634575797608</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.296629807557849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.38896022897589</v>
+        <v>1.329170556921696</v>
       </c>
       <c r="C11">
-        <v>0.1559119299766394</v>
+        <v>0.2467128172870474</v>
       </c>
       <c r="D11">
-        <v>0.2013559496403587</v>
+        <v>0.2782831438790225</v>
       </c>
       <c r="E11">
-        <v>0.1381446640915804</v>
+        <v>0.1534563799993975</v>
       </c>
       <c r="F11">
-        <v>1.067920975309576</v>
+        <v>0.6576794590711756</v>
       </c>
       <c r="G11">
-        <v>0.000808301315605112</v>
+        <v>0.3421973075467335</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001646871266239636</v>
       </c>
       <c r="J11">
-        <v>0.133929988562457</v>
+        <v>0.2970632286855874</v>
       </c>
       <c r="K11">
-        <v>1.396850903098567</v>
+        <v>0.2586936789064325</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1210204148631107</v>
       </c>
       <c r="M11">
-        <v>0.4971470646031335</v>
+        <v>1.47582727269986</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.481155421641745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5311461290306596</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.295757077511695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.425023177521581</v>
+        <v>1.362300611824878</v>
       </c>
       <c r="C12">
-        <v>0.1592967967052914</v>
+        <v>0.2521336348855527</v>
       </c>
       <c r="D12">
-        <v>0.2061516690100831</v>
+        <v>0.28457079105074</v>
       </c>
       <c r="E12">
-        <v>0.1408647664715197</v>
+        <v>0.1563743768774515</v>
       </c>
       <c r="F12">
-        <v>1.078622209927971</v>
+        <v>0.6630247297715073</v>
       </c>
       <c r="G12">
-        <v>0.0008071928101892795</v>
+        <v>0.3440652863535547</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001752955620521135</v>
       </c>
       <c r="J12">
-        <v>0.1359020332718472</v>
+        <v>0.2965906433084129</v>
       </c>
       <c r="K12">
-        <v>1.432685019938901</v>
+        <v>0.2572760150738667</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1227028123107843</v>
       </c>
       <c r="M12">
-        <v>0.5099364455705455</v>
+        <v>1.511788020910188</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.497022347497079</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5445528392473662</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.298808136533296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.417251131062983</v>
+        <v>1.35537087009908</v>
       </c>
       <c r="C13">
-        <v>0.1585675650374156</v>
+        <v>0.2507304110139899</v>
       </c>
       <c r="D13">
-        <v>0.2051177336757775</v>
+        <v>0.2831608485469985</v>
       </c>
       <c r="E13">
-        <v>0.1402777182485515</v>
+        <v>0.1557390589716476</v>
       </c>
       <c r="F13">
-        <v>1.076301660541489</v>
+        <v>0.6621031622372797</v>
       </c>
       <c r="G13">
-        <v>0.0008074311151874472</v>
+        <v>0.3438477912094982</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001684367964166711</v>
       </c>
       <c r="J13">
-        <v>0.1354756664847372</v>
+        <v>0.296787831729155</v>
       </c>
       <c r="K13">
-        <v>1.42496305910538</v>
+        <v>0.2577229593596968</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.122353580922443</v>
       </c>
       <c r="M13">
-        <v>0.5071794599233712</v>
+        <v>1.503840438536884</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.4935632194547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.54160478418396</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.298742665433736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.391924812207293</v>
+        <v>1.331983398843619</v>
       </c>
       <c r="C14">
-        <v>0.1561902988260044</v>
+        <v>0.2470586213409263</v>
       </c>
       <c r="D14">
-        <v>0.201750008258017</v>
+        <v>0.278776693925721</v>
       </c>
       <c r="E14">
-        <v>0.1383678997242619</v>
+        <v>0.1536934940721011</v>
       </c>
       <c r="F14">
-        <v>1.068794268452507</v>
+        <v>0.658216634145397</v>
       </c>
       <c r="G14">
-        <v>0.0008082099229737553</v>
+        <v>0.3424294150123472</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001635796913018517</v>
       </c>
       <c r="J14">
-        <v>0.1340914897951535</v>
+        <v>0.297064844840456</v>
       </c>
       <c r="K14">
-        <v>1.399797020474296</v>
+        <v>0.2586371887400567</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1211643635402524</v>
       </c>
       <c r="M14">
-        <v>0.4981981100751796</v>
+        <v>1.478699644715164</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.482442017197997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5322232924163828</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.296259179461643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.376426761294994</v>
+        <v>1.3172533837419</v>
       </c>
       <c r="C15">
-        <v>0.1547348341720181</v>
+        <v>0.245275572892055</v>
       </c>
       <c r="D15">
-        <v>0.1996903317338052</v>
+        <v>0.2762027583970479</v>
       </c>
       <c r="E15">
-        <v>0.1372016293061549</v>
+        <v>0.1524552693867989</v>
       </c>
       <c r="F15">
-        <v>1.06424174224955</v>
+        <v>0.6553902229285384</v>
       </c>
       <c r="G15">
-        <v>0.000808688237661781</v>
+        <v>0.3412009663610434</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001702317974861423</v>
       </c>
       <c r="J15">
-        <v>0.1332484287650928</v>
+        <v>0.2970490451105974</v>
       </c>
       <c r="K15">
-        <v>1.384394812156785</v>
+        <v>0.2589206544825515</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1204113595752858</v>
       </c>
       <c r="M15">
-        <v>0.492704156427024</v>
+        <v>1.463700971985162</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.475751534007202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5265978847062271</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.293586961197676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.287831098812177</v>
+        <v>1.235383276423107</v>
       </c>
       <c r="C16">
-        <v>0.1464035647830713</v>
+        <v>0.2321914416203157</v>
       </c>
       <c r="D16">
-        <v>0.1879336167437913</v>
+        <v>0.2608480929305017</v>
       </c>
       <c r="E16">
-        <v>0.1305708736979163</v>
+        <v>0.1453449394483357</v>
       </c>
       <c r="F16">
-        <v>1.038838893479337</v>
+        <v>0.6424784430546424</v>
       </c>
       <c r="G16">
-        <v>0.0008114491572019228</v>
+        <v>0.3367517596658089</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001609276815162985</v>
       </c>
       <c r="J16">
-        <v>0.1284884394407655</v>
+        <v>0.2983176114270449</v>
       </c>
       <c r="K16">
-        <v>1.296313333455316</v>
+        <v>0.2624804006196264</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1163357357983514</v>
       </c>
       <c r="M16">
-        <v>0.4613283270839688</v>
+        <v>1.375309202914707</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.439226191099834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4936886771461744</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.286609245473173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.233660460987352</v>
+        <v>1.18514066039657</v>
       </c>
       <c r="C17">
-        <v>0.1412999367684193</v>
+        <v>0.2242149331800647</v>
       </c>
       <c r="D17">
-        <v>0.1807607353396463</v>
+        <v>0.2514897239690299</v>
       </c>
       <c r="E17">
-        <v>0.126548292239967</v>
+        <v>0.1410307468155771</v>
       </c>
       <c r="F17">
-        <v>1.023847211029349</v>
+        <v>0.6348403272043583</v>
       </c>
       <c r="G17">
-        <v>0.0008131610543486694</v>
+        <v>0.3342135746891586</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001630832876857724</v>
       </c>
       <c r="J17">
-        <v>0.1256296722741368</v>
+        <v>0.2992099040429252</v>
       </c>
       <c r="K17">
-        <v>1.242427620640797</v>
+        <v>0.2647781001117586</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1138865267509246</v>
       </c>
       <c r="M17">
-        <v>0.442170792008227</v>
+        <v>1.321137396696088</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.418387584825894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4735550907568253</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.282970935812088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.202563646159746</v>
+        <v>1.157255311070855</v>
       </c>
       <c r="C18">
-        <v>0.1383667531275421</v>
+        <v>0.2184718025763175</v>
       </c>
       <c r="D18">
-        <v>0.176648831191315</v>
+        <v>0.2458572955827805</v>
       </c>
       <c r="E18">
-        <v>0.1242505056072325</v>
+        <v>0.1385381710590963</v>
       </c>
       <c r="F18">
-        <v>1.015434342010053</v>
+        <v>0.6317405935664837</v>
       </c>
       <c r="G18">
-        <v>0.0008141525268149444</v>
+        <v>0.3337772390276044</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001415857418741062</v>
       </c>
       <c r="J18">
-        <v>0.124007056582073</v>
+        <v>0.3002610801201513</v>
       </c>
       <c r="K18">
-        <v>1.211483773591851</v>
+        <v>0.2668703440992779</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1125686943413413</v>
       </c>
       <c r="M18">
-        <v>0.4311829632826019</v>
+        <v>1.288993619282479</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.406958453013516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4616973078667002</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.284174053469926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.192044724467962</v>
+        <v>1.147024597350253</v>
       </c>
       <c r="C19">
-        <v>0.1373739830388274</v>
+        <v>0.2174341062469409</v>
       </c>
       <c r="D19">
-        <v>0.1752589017802251</v>
+        <v>0.2441631616657816</v>
       </c>
       <c r="E19">
-        <v>0.1234751794793887</v>
+        <v>0.1377187520218079</v>
       </c>
       <c r="F19">
-        <v>1.012621240285895</v>
+        <v>0.6297882133270818</v>
       </c>
       <c r="G19">
-        <v>0.0008144894109395424</v>
+        <v>0.332903908984683</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001541275445584134</v>
       </c>
       <c r="J19">
-        <v>0.1234613086978626</v>
+        <v>0.3002406193660647</v>
       </c>
       <c r="K19">
-        <v>1.201014797617717</v>
+        <v>0.2670225664463395</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1120694547964263</v>
       </c>
       <c r="M19">
-        <v>0.4274678091260142</v>
+        <v>1.27888646018036</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.403182532550971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4579142198662822</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.282254817941308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.239420615502127</v>
+        <v>1.190570090750185</v>
       </c>
       <c r="C20">
-        <v>0.1418429808734061</v>
+        <v>0.2249700109260715</v>
       </c>
       <c r="D20">
-        <v>0.1815228611299489</v>
+        <v>0.2524623750001638</v>
       </c>
       <c r="E20">
-        <v>0.1269748421478241</v>
+        <v>0.1414860276472325</v>
       </c>
       <c r="F20">
-        <v>1.02542120272868</v>
+        <v>0.6357364158491876</v>
       </c>
       <c r="G20">
-        <v>0.0008129781161580758</v>
+        <v>0.3345515588268881</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001605379322042744</v>
       </c>
       <c r="J20">
-        <v>0.1259317307986905</v>
+        <v>0.2991495849952557</v>
       </c>
       <c r="K20">
-        <v>1.248158580566837</v>
+        <v>0.2645863760780074</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1141510632107057</v>
       </c>
       <c r="M20">
-        <v>0.4442068794420351</v>
+        <v>1.326823443211111</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.420547838920697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4756730828297151</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.283574632454119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.399360597100809</v>
+        <v>1.337705720829661</v>
       </c>
       <c r="C21">
-        <v>0.1568884154707462</v>
+        <v>0.2494499306196474</v>
       </c>
       <c r="D21">
-        <v>0.2027385293373811</v>
+        <v>0.2803665290989272</v>
       </c>
       <c r="E21">
-        <v>0.1389281160154425</v>
+        <v>0.1543248937733708</v>
       </c>
       <c r="F21">
-        <v>1.070989746209136</v>
+        <v>0.6580267792281518</v>
       </c>
       <c r="G21">
-        <v>0.000807980904060036</v>
+        <v>0.3417806788145157</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001907050946524436</v>
       </c>
       <c r="J21">
-        <v>0.134497053242832</v>
+        <v>0.2964310240267594</v>
       </c>
       <c r="K21">
-        <v>1.407186215250732</v>
+        <v>0.25755837213147</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1214318770909131</v>
       </c>
       <c r="M21">
-        <v>0.5008345987083374</v>
+        <v>1.487208483440639</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.485683130450809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5353089227749166</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.293573276003897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.5045494425068</v>
+        <v>1.435284477164203</v>
       </c>
       <c r="C22">
-        <v>0.1667507755183522</v>
+        <v>0.2639573390457173</v>
       </c>
       <c r="D22">
-        <v>0.216743214619882</v>
+        <v>0.2984300620672258</v>
       </c>
       <c r="E22">
-        <v>0.146897173457976</v>
+        <v>0.1628402086596594</v>
       </c>
       <c r="F22">
-        <v>1.10280793989898</v>
+        <v>0.6752438398783411</v>
       </c>
       <c r="G22">
-        <v>0.0008047723233289606</v>
+        <v>0.3485077086500183</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002039004508781694</v>
       </c>
       <c r="J22">
-        <v>0.1403068795293834</v>
+        <v>0.2957386093288008</v>
       </c>
       <c r="K22">
-        <v>1.511675151348442</v>
+        <v>0.2543763255085807</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1264680841198924</v>
       </c>
       <c r="M22">
-        <v>0.5381685347185012</v>
+        <v>1.590808651999595</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.533640291947421</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5740612535798917</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.306617007726871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.448341907119698</v>
+        <v>1.384591739557521</v>
       </c>
       <c r="C23">
-        <v>0.1614839135673947</v>
+        <v>0.2546153095732535</v>
       </c>
       <c r="D23">
-        <v>0.2092550922237706</v>
+        <v>0.288403604277832</v>
       </c>
       <c r="E23">
-        <v>0.1426288059824472</v>
+        <v>0.1582419643711859</v>
       </c>
       <c r="F23">
-        <v>1.085631193626384</v>
+        <v>0.6675628688401218</v>
       </c>
       <c r="G23">
-        <v>0.0008064797271665715</v>
+        <v>0.3461361063429678</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001649811592730366</v>
       </c>
       <c r="J23">
-        <v>0.1371857221371684</v>
+        <v>0.2967354799758226</v>
       </c>
       <c r="K23">
-        <v>1.455850974970843</v>
+        <v>0.2570136107913896</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1238610591958889</v>
       </c>
       <c r="M23">
-        <v>0.5182106105053634</v>
+        <v>1.534136073035228</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.507529941121078</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5529599883081602</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.303553250727376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.236816305754274</v>
+        <v>1.19027966204564</v>
       </c>
       <c r="C24">
-        <v>0.1415974677393592</v>
+        <v>0.2221518912597986</v>
       </c>
       <c r="D24">
-        <v>0.1811782672332924</v>
+        <v>0.2514485031172029</v>
       </c>
       <c r="E24">
-        <v>0.1267819528491181</v>
+        <v>0.1412206997073007</v>
       </c>
       <c r="F24">
-        <v>1.024708961090013</v>
+        <v>0.6378554128203788</v>
       </c>
       <c r="G24">
-        <v>0.0008130607997757357</v>
+        <v>0.3364219051030233</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001117402885508767</v>
       </c>
       <c r="J24">
-        <v>0.1257951051592485</v>
+        <v>0.3002282976766679</v>
       </c>
       <c r="K24">
-        <v>1.245567503384422</v>
+        <v>0.2662194550752943</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1141853085585396</v>
       </c>
       <c r="M24">
-        <v>0.4432862835533271</v>
+        <v>1.322129472911087</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.419569475642191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4740883020936337</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.289792691457492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.010913056355065</v>
+        <v>0.9804337807229047</v>
       </c>
       <c r="C25">
-        <v>0.1202298014101189</v>
+        <v>0.1876850482574639</v>
       </c>
       <c r="D25">
-        <v>0.1514100199358666</v>
+        <v>0.2123777980950621</v>
       </c>
       <c r="E25">
-        <v>0.1102885099701005</v>
+        <v>0.1234983031456949</v>
       </c>
       <c r="F25">
-        <v>0.9669374537758699</v>
+        <v>0.6097584554572819</v>
       </c>
       <c r="G25">
-        <v>0.0008204226414373061</v>
+        <v>0.3286225270766678</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001486456066155384</v>
       </c>
       <c r="J25">
-        <v>0.1143275140576989</v>
+        <v>0.3056096202216452</v>
       </c>
       <c r="K25">
-        <v>1.020590291324282</v>
+        <v>0.2777847809040779</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1044427019750529</v>
       </c>
       <c r="M25">
-        <v>0.3636324579426145</v>
+        <v>1.093995333819407</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.345757633967423</v>
+        <v>0.3896948323910507</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.283979749049095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8288003896905423</v>
+        <v>0.8232677459579918</v>
       </c>
       <c r="C2">
-        <v>0.1589400865784114</v>
+        <v>0.1644362396540231</v>
       </c>
       <c r="D2">
-        <v>0.1833105062261495</v>
+        <v>0.1877146237724361</v>
       </c>
       <c r="E2">
-        <v>0.1108367796726881</v>
+        <v>0.111453705490149</v>
       </c>
       <c r="F2">
-        <v>0.5960617852200798</v>
+        <v>0.5711779486356221</v>
       </c>
       <c r="G2">
-        <v>0.3281089096664687</v>
+        <v>0.2926412793340276</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001753311546935699</v>
+        <v>0.001241798554936224</v>
       </c>
       <c r="J2">
-        <v>0.3125160067057635</v>
+        <v>0.3254886633321092</v>
       </c>
       <c r="K2">
-        <v>0.2900587858557575</v>
+        <v>0.2662218798515443</v>
       </c>
       <c r="L2">
-        <v>0.09803657702986612</v>
+        <v>0.136780162631128</v>
       </c>
       <c r="M2">
-        <v>0.9229734455946641</v>
+        <v>0.06966068334867259</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0968185153029637</v>
       </c>
       <c r="O2">
-        <v>0.3270277192948114</v>
+        <v>0.9374541032581476</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.296926222340844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3313696097789176</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.225961224854416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7237764146760242</v>
+        <v>0.7219871201689614</v>
       </c>
       <c r="C3">
-        <v>0.1418039171229566</v>
+        <v>0.1430427762548447</v>
       </c>
       <c r="D3">
-        <v>0.1644371674174181</v>
+        <v>0.1680894002931836</v>
       </c>
       <c r="E3">
-        <v>0.1025751571653259</v>
+        <v>0.1031431218116268</v>
       </c>
       <c r="F3">
-        <v>0.586260347731411</v>
+        <v>0.5635582516893578</v>
       </c>
       <c r="G3">
-        <v>0.3271098976278211</v>
+        <v>0.2943931282197525</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002703798012938741</v>
+        <v>0.001865207436692717</v>
       </c>
       <c r="J3">
-        <v>0.3169998797874598</v>
+        <v>0.3279049817372623</v>
       </c>
       <c r="K3">
-        <v>0.297729896447894</v>
+        <v>0.2743214272665728</v>
       </c>
       <c r="L3">
-        <v>0.09385474341087274</v>
+        <v>0.1423695780555132</v>
       </c>
       <c r="M3">
-        <v>0.8089137840426872</v>
+        <v>0.0715467839194277</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09283493906508511</v>
       </c>
       <c r="O3">
-        <v>0.2853162001487064</v>
+        <v>0.8202196676442952</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.303892058645786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2886560756585439</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.237334787993021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6590373902220961</v>
+        <v>0.6594620391564376</v>
       </c>
       <c r="C4">
-        <v>0.1314173642958707</v>
+        <v>0.130153031126568</v>
       </c>
       <c r="D4">
-        <v>0.1530062898425228</v>
+        <v>0.1562184540027829</v>
       </c>
       <c r="E4">
-        <v>0.09762546375168668</v>
+        <v>0.0981663600902678</v>
       </c>
       <c r="F4">
-        <v>0.5809822599109467</v>
+        <v>0.5594997648578328</v>
       </c>
       <c r="G4">
-        <v>0.3269802437798432</v>
+        <v>0.2959622683770391</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003476422878172514</v>
+        <v>0.002405621669069991</v>
       </c>
       <c r="J4">
-        <v>0.3200788259574665</v>
+        <v>0.3295330894686046</v>
       </c>
       <c r="K4">
-        <v>0.3027526761745101</v>
+        <v>0.2795324821388423</v>
       </c>
       <c r="L4">
-        <v>0.0914194430815165</v>
+        <v>0.1459859210162797</v>
       </c>
       <c r="M4">
-        <v>0.7388815067061785</v>
+        <v>0.07320580016162737</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0905163012637864</v>
       </c>
       <c r="O4">
-        <v>0.2598004538320886</v>
+        <v>0.7482820440380635</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.30986893698946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2625315935727492</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.245698748761157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6322528544000363</v>
+        <v>0.6335651696206241</v>
       </c>
       <c r="C5">
-        <v>0.1275952869197141</v>
+        <v>0.1253535111136017</v>
       </c>
       <c r="D5">
-        <v>0.1484767801166385</v>
+        <v>0.1515143649948101</v>
       </c>
       <c r="E5">
-        <v>0.09564742959927486</v>
+        <v>0.09617796399716028</v>
       </c>
       <c r="F5">
-        <v>0.5785968027420196</v>
+        <v>0.557594940040552</v>
       </c>
       <c r="G5">
-        <v>0.3267097451698291</v>
+        <v>0.2964046940962177</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003912661836851239</v>
+        <v>0.002751491348092827</v>
       </c>
       <c r="J5">
-        <v>0.321236814655407</v>
+        <v>0.3300547030767405</v>
       </c>
       <c r="K5">
-        <v>0.3046126376012026</v>
+        <v>0.2814687418536757</v>
       </c>
       <c r="L5">
-        <v>0.0904338530540727</v>
+        <v>0.147367562895921</v>
       </c>
       <c r="M5">
-        <v>0.7106654809834794</v>
+        <v>0.07395962597534833</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08957753686220826</v>
       </c>
       <c r="O5">
-        <v>0.2495232254055182</v>
+        <v>0.719298761864394</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.311638384341734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2520071323492239</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.248406423175823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.62738923032299</v>
+        <v>0.6288550863713738</v>
       </c>
       <c r="C6">
-        <v>0.1274285334050944</v>
+        <v>0.1250450190134842</v>
       </c>
       <c r="D6">
-        <v>0.1478385365446968</v>
+        <v>0.1508466262378363</v>
       </c>
       <c r="E6">
-        <v>0.09533233776695482</v>
+        <v>0.09586106446395704</v>
       </c>
       <c r="F6">
-        <v>0.57770469784856</v>
+        <v>0.5567970632106451</v>
       </c>
       <c r="G6">
-        <v>0.3262626789005125</v>
+        <v>0.2960992506071634</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004087780883462067</v>
+        <v>0.00292711080611685</v>
       </c>
       <c r="J6">
-        <v>0.3212178752282213</v>
+        <v>0.3299266444870312</v>
       </c>
       <c r="K6">
-        <v>0.3046045019179626</v>
+        <v>0.2814944653924574</v>
       </c>
       <c r="L6">
-        <v>0.09024135779213793</v>
+        <v>0.1474317744975071</v>
       </c>
       <c r="M6">
-        <v>0.7063819282308543</v>
+        <v>0.0740339864571915</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.08939337689017179</v>
       </c>
       <c r="O6">
-        <v>0.2479399161778062</v>
+        <v>0.7148853608768917</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.310636971361518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2503815738879744</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.247610421907495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6575474114990811</v>
+        <v>0.6581026281221511</v>
       </c>
       <c r="C7">
-        <v>0.1326409460155702</v>
+        <v>0.1312340927183016</v>
       </c>
       <c r="D7">
-        <v>0.153250235156662</v>
+        <v>0.1566613483931292</v>
       </c>
       <c r="E7">
-        <v>0.09763041230806735</v>
+        <v>0.09821073375992739</v>
       </c>
       <c r="F7">
-        <v>0.5795673081624244</v>
+        <v>0.5573694760880628</v>
       </c>
       <c r="G7">
-        <v>0.3258604196374648</v>
+        <v>0.2968681032285474</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00373922941716831</v>
+        <v>0.002711777266831916</v>
       </c>
       <c r="J7">
-        <v>0.3195060005439032</v>
+        <v>0.3258893196188737</v>
       </c>
       <c r="K7">
-        <v>0.3019017574183653</v>
+        <v>0.2784512405724264</v>
       </c>
       <c r="L7">
-        <v>0.09132221333352675</v>
+        <v>0.1454011063993867</v>
       </c>
       <c r="M7">
-        <v>0.7396031491887953</v>
+        <v>0.07298102766767212</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09039603759847736</v>
       </c>
       <c r="O7">
-        <v>0.2599953680324703</v>
+        <v>0.7487914073393682</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.306293696242292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2627345830693244</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.240305036131687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7911301650835867</v>
+        <v>0.7872663548969285</v>
       </c>
       <c r="C8">
-        <v>0.1547057253389568</v>
+        <v>0.1581780158209796</v>
       </c>
       <c r="D8">
-        <v>0.1771739461559463</v>
+        <v>0.181993385951003</v>
       </c>
       <c r="E8">
-        <v>0.1080038730656518</v>
+        <v>0.1087362944203143</v>
       </c>
       <c r="F8">
-        <v>0.590705069486269</v>
+        <v>0.5641344048468326</v>
       </c>
       <c r="G8">
-        <v>0.3261942432009093</v>
+        <v>0.2982946285692591</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002348681192057889</v>
+        <v>0.001790363029978259</v>
       </c>
       <c r="J8">
-        <v>0.3132237549359829</v>
+        <v>0.3156582806415713</v>
       </c>
       <c r="K8">
-        <v>0.2914937221668747</v>
+        <v>0.2669688827760694</v>
       </c>
       <c r="L8">
-        <v>0.09645595422940545</v>
+        <v>0.1376949066946374</v>
       </c>
       <c r="M8">
-        <v>0.88511643176966</v>
+        <v>0.06967007166383166</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09522592651516959</v>
       </c>
       <c r="O8">
-        <v>0.3130668206710325</v>
+        <v>0.8978370887140557</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.294244880198519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3171050109645535</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.21859091669171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.053248860423196</v>
+        <v>1.039613668745261</v>
       </c>
       <c r="C9">
-        <v>0.19687445160001</v>
+        <v>0.2113547184861204</v>
       </c>
       <c r="D9">
-        <v>0.2248900731527925</v>
+        <v>0.2319036701948534</v>
       </c>
       <c r="E9">
-        <v>0.1293319850264005</v>
+        <v>0.1302402570892873</v>
       </c>
       <c r="F9">
-        <v>0.6211743210513632</v>
+        <v>0.587734221354232</v>
       </c>
       <c r="G9">
-        <v>0.3328810061621184</v>
+        <v>0.299914460154767</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0008250579095996358</v>
+        <v>0.0008398369608890732</v>
       </c>
       <c r="J9">
-        <v>0.3046155012913303</v>
+        <v>0.3085347571483226</v>
       </c>
       <c r="K9">
-        <v>0.275195591758699</v>
+        <v>0.2488857900845822</v>
       </c>
       <c r="L9">
-        <v>0.1077869132822826</v>
+        <v>0.1253100353871162</v>
       </c>
       <c r="M9">
-        <v>1.168764054549655</v>
+        <v>0.06780545491562862</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1060075593065335</v>
       </c>
       <c r="O9">
-        <v>0.4174420646376689</v>
+        <v>1.189438325292315</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.291114448688489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4240164496088141</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.200759561274566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.244316080442104</v>
+        <v>1.223631770853586</v>
       </c>
       <c r="C10">
-        <v>0.2294538405379711</v>
+        <v>0.2515039426893537</v>
       </c>
       <c r="D10">
-        <v>0.2610720845992773</v>
+        <v>0.2710297760824432</v>
       </c>
       <c r="E10">
-        <v>0.1457518919067553</v>
+        <v>0.1470400559812255</v>
       </c>
       <c r="F10">
-        <v>0.647087455327231</v>
+        <v>0.6035774582568436</v>
       </c>
       <c r="G10">
-        <v>0.3400360078453701</v>
+        <v>0.3153185333540662</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0009358105161005881</v>
+        <v>0.001203526155678425</v>
       </c>
       <c r="J10">
-        <v>0.2997710518928756</v>
+        <v>0.2879762747222543</v>
       </c>
       <c r="K10">
-        <v>0.2645056986769561</v>
+        <v>0.2349926293107494</v>
       </c>
       <c r="L10">
-        <v>0.1168446202531896</v>
+        <v>0.1164730399671381</v>
       </c>
       <c r="M10">
-        <v>1.37835622630999</v>
+        <v>0.06813915869154918</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1144868718321419</v>
       </c>
       <c r="O10">
-        <v>0.4950634575797608</v>
+        <v>1.403846343449629</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.296629807557849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5035770505408124</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.182730234570244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.329170556921696</v>
+        <v>1.306292580686545</v>
       </c>
       <c r="C11">
-        <v>0.2467128172870474</v>
+        <v>0.2704444494995073</v>
       </c>
       <c r="D11">
-        <v>0.2782831438790225</v>
+        <v>0.2918113110543601</v>
       </c>
       <c r="E11">
-        <v>0.1534563799993975</v>
+        <v>0.1553476644471417</v>
       </c>
       <c r="F11">
-        <v>0.6576794590711756</v>
+        <v>0.6018266501376601</v>
       </c>
       <c r="G11">
-        <v>0.3421973075467335</v>
+        <v>0.3434910787952887</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001646871266239636</v>
+        <v>0.002051775461844763</v>
       </c>
       <c r="J11">
-        <v>0.2970632286855874</v>
+        <v>0.254935781079638</v>
       </c>
       <c r="K11">
-        <v>0.2586936789064325</v>
+        <v>0.225184066415828</v>
       </c>
       <c r="L11">
-        <v>0.1210204148631107</v>
+        <v>0.1114786698425441</v>
       </c>
       <c r="M11">
-        <v>1.47582727269986</v>
+        <v>0.0671456288108665</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1181371049384339</v>
       </c>
       <c r="O11">
-        <v>0.5311461290306596</v>
+        <v>1.501452555302677</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.295757077511695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5406608610089876</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.15184000229246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.362300611824878</v>
+        <v>1.338693968468476</v>
       </c>
       <c r="C12">
-        <v>0.2521336348855527</v>
+        <v>0.276164118321617</v>
       </c>
       <c r="D12">
-        <v>0.28457079105074</v>
+        <v>0.2997498080525816</v>
       </c>
       <c r="E12">
-        <v>0.1563743768774515</v>
+        <v>0.158551827436888</v>
       </c>
       <c r="F12">
-        <v>0.6630247297715073</v>
+        <v>0.601417633624088</v>
       </c>
       <c r="G12">
-        <v>0.3440652863535547</v>
+        <v>0.3586164041949189</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001752955620521135</v>
+        <v>0.002157010992068997</v>
       </c>
       <c r="J12">
-        <v>0.2965906433084129</v>
+        <v>0.2419026782471114</v>
       </c>
       <c r="K12">
-        <v>0.2572760150738667</v>
+        <v>0.2218167114635197</v>
       </c>
       <c r="L12">
-        <v>0.1227028123107843</v>
+        <v>0.1097649667710776</v>
       </c>
       <c r="M12">
-        <v>1.511788020910188</v>
+        <v>0.06693022417503158</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1195838226891368</v>
       </c>
       <c r="O12">
-        <v>0.5445528392473662</v>
+        <v>1.537205072160845</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.298808136533296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5544639629712265</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.140795049108078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.35537087009908</v>
+        <v>1.331909572337281</v>
       </c>
       <c r="C13">
-        <v>0.2507304110139899</v>
+        <v>0.2746904155316372</v>
       </c>
       <c r="D13">
-        <v>0.2831608485469985</v>
+        <v>0.2979700172781037</v>
       </c>
       <c r="E13">
-        <v>0.1557390589716476</v>
+        <v>0.1578522620962985</v>
       </c>
       <c r="F13">
-        <v>0.6621031622372797</v>
+        <v>0.6017630907807998</v>
       </c>
       <c r="G13">
-        <v>0.3438477912094982</v>
+        <v>0.355382891314548</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001684367964166711</v>
+        <v>0.002079900984186089</v>
       </c>
       <c r="J13">
-        <v>0.296787831729155</v>
+        <v>0.2447711468061797</v>
       </c>
       <c r="K13">
-        <v>0.2577229593596968</v>
+        <v>0.2226726194257687</v>
       </c>
       <c r="L13">
-        <v>0.122353580922443</v>
+        <v>0.1101735775915405</v>
       </c>
       <c r="M13">
-        <v>1.503840438536884</v>
+        <v>0.06703278701670889</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1192864658911432</v>
       </c>
       <c r="O13">
-        <v>0.54160478418396</v>
+        <v>1.529315047879862</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.298742665433736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5514302516176457</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.143809676564473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.331983398843619</v>
+        <v>1.309040434899828</v>
       </c>
       <c r="C14">
-        <v>0.2470586213409263</v>
+        <v>0.2708124116315815</v>
       </c>
       <c r="D14">
-        <v>0.278776693925721</v>
+        <v>0.292434328472055</v>
       </c>
       <c r="E14">
-        <v>0.1536934940721011</v>
+        <v>0.1556071522459881</v>
       </c>
       <c r="F14">
-        <v>0.658216634145397</v>
+        <v>0.6019036720386666</v>
       </c>
       <c r="G14">
-        <v>0.3424294150123472</v>
+        <v>0.3447413259813032</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001635796913018517</v>
+        <v>0.002036900359831506</v>
       </c>
       <c r="J14">
-        <v>0.297064844840456</v>
+        <v>0.2538957942861018</v>
       </c>
       <c r="K14">
-        <v>0.2586371887400567</v>
+        <v>0.2249633736101515</v>
       </c>
       <c r="L14">
-        <v>0.1211643635402524</v>
+        <v>0.1113549930546185</v>
       </c>
       <c r="M14">
-        <v>1.478699644715164</v>
+        <v>0.06715178608461514</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1182621797187053</v>
       </c>
       <c r="O14">
-        <v>0.5322232924163828</v>
+        <v>1.504313470201595</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.296259179461643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5417705017045193</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.151205493049503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.3172533837419</v>
+        <v>1.294656108304309</v>
       </c>
       <c r="C15">
-        <v>0.245275572892055</v>
+        <v>0.2689053908753749</v>
       </c>
       <c r="D15">
-        <v>0.2762027583970479</v>
+        <v>0.2891956110706246</v>
       </c>
       <c r="E15">
-        <v>0.1524552693867989</v>
+        <v>0.154254282506276</v>
       </c>
       <c r="F15">
-        <v>0.6553902229285384</v>
+        <v>0.601443131083208</v>
       </c>
       <c r="G15">
-        <v>0.3412009663610434</v>
+        <v>0.3383361137363394</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001702317974861423</v>
+        <v>0.00212421788378947</v>
       </c>
       <c r="J15">
-        <v>0.2970490451105974</v>
+        <v>0.2592978252585709</v>
       </c>
       <c r="K15">
-        <v>0.2589206544825515</v>
+        <v>0.2260933256121387</v>
       </c>
       <c r="L15">
-        <v>0.1204113595752858</v>
+        <v>0.1119952596357709</v>
       </c>
       <c r="M15">
-        <v>1.463700971985162</v>
+        <v>0.06711085695216035</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1176064936147156</v>
       </c>
       <c r="O15">
-        <v>0.5265978847062271</v>
+        <v>1.489363951967675</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.293586961197676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5359758292595203</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.154378943126446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.235383276423107</v>
+        <v>1.214949081006694</v>
       </c>
       <c r="C16">
-        <v>0.2321914416203157</v>
+        <v>0.2544003767721392</v>
       </c>
       <c r="D16">
-        <v>0.2608480929305017</v>
+        <v>0.2706136156169663</v>
       </c>
       <c r="E16">
-        <v>0.1453449394483357</v>
+        <v>0.1466004125431262</v>
       </c>
       <c r="F16">
-        <v>0.6424784430546424</v>
+        <v>0.5998742714227845</v>
       </c>
       <c r="G16">
-        <v>0.3367517596658089</v>
+        <v>0.3108724018529117</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001609276815162985</v>
+        <v>0.002012071791678061</v>
       </c>
       <c r="J16">
-        <v>0.2983176114270449</v>
+        <v>0.2885373852051671</v>
       </c>
       <c r="K16">
-        <v>0.2624804006196264</v>
+        <v>0.2335291133856465</v>
       </c>
       <c r="L16">
-        <v>0.1163357357983514</v>
+        <v>0.1160699593468362</v>
       </c>
       <c r="M16">
-        <v>1.375309202914707</v>
+        <v>0.06734967108365097</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1140146119941434</v>
       </c>
       <c r="O16">
-        <v>0.4936886771461744</v>
+        <v>1.400743817160588</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.286609245473173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5021315568903688</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.175186073956255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.18514066039657</v>
+        <v>1.166242405093158</v>
       </c>
       <c r="C17">
-        <v>0.2242149331800647</v>
+        <v>0.2451297792613047</v>
       </c>
       <c r="D17">
-        <v>0.2514897239690299</v>
+        <v>0.2597705785486966</v>
       </c>
       <c r="E17">
-        <v>0.1410307468155771</v>
+        <v>0.142048193934901</v>
       </c>
       <c r="F17">
-        <v>0.6348403272043583</v>
+        <v>0.5974674843917356</v>
       </c>
       <c r="G17">
-        <v>0.3342135746891586</v>
+        <v>0.2994314096052122</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001630832876857724</v>
+        <v>0.00200560077206724</v>
       </c>
       <c r="J17">
-        <v>0.2992099040429252</v>
+        <v>0.3027174490043691</v>
       </c>
       <c r="K17">
-        <v>0.2647781001117586</v>
+        <v>0.2376137355909513</v>
       </c>
       <c r="L17">
-        <v>0.1138865267509246</v>
+        <v>0.1184732720239694</v>
       </c>
       <c r="M17">
-        <v>1.321137396696088</v>
+        <v>0.06736543925669558</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1118035990470858</v>
       </c>
       <c r="O17">
-        <v>0.4735550907568253</v>
+        <v>1.345984288873382</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.282970935812088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4814499384757625</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.184296446205167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.157255311070855</v>
+        <v>1.1392851233594</v>
       </c>
       <c r="C18">
-        <v>0.2184718025763175</v>
+        <v>0.2384025827602585</v>
       </c>
       <c r="D18">
-        <v>0.2458572955827805</v>
+        <v>0.2534557737872518</v>
       </c>
       <c r="E18">
-        <v>0.1385381710590963</v>
+        <v>0.1394520511221486</v>
       </c>
       <c r="F18">
-        <v>0.6317405935664837</v>
+        <v>0.5967051318232564</v>
       </c>
       <c r="G18">
-        <v>0.3337772390276044</v>
+        <v>0.2954971535263695</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001415857418741062</v>
+        <v>0.001718018592216097</v>
       </c>
       <c r="J18">
-        <v>0.3002610801201513</v>
+        <v>0.3095087927537605</v>
       </c>
       <c r="K18">
-        <v>0.2668703440992779</v>
+        <v>0.2404278648836602</v>
       </c>
       <c r="L18">
-        <v>0.1125686943413413</v>
+        <v>0.1200488041895724</v>
       </c>
       <c r="M18">
-        <v>1.288993619282479</v>
+        <v>0.06758253675899617</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1106002372226129</v>
       </c>
       <c r="O18">
-        <v>0.4616973078667002</v>
+        <v>1.313348376128005</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.284174053469926</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4692884349347963</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.191081261278413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.147024597350253</v>
+        <v>1.129400851235602</v>
       </c>
       <c r="C19">
-        <v>0.2174341062469409</v>
+        <v>0.237077552243619</v>
       </c>
       <c r="D19">
-        <v>0.2441631616657816</v>
+        <v>0.2515586153340621</v>
       </c>
       <c r="E19">
-        <v>0.1377187520218079</v>
+        <v>0.1386028038209588</v>
       </c>
       <c r="F19">
-        <v>0.6297882133270818</v>
+        <v>0.5954901308676384</v>
       </c>
       <c r="G19">
-        <v>0.332903908984683</v>
+        <v>0.2937578450385416</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001541275445584134</v>
+        <v>0.001856850677926403</v>
       </c>
       <c r="J19">
-        <v>0.3002406193660647</v>
+        <v>0.3111120909650111</v>
       </c>
       <c r="K19">
-        <v>0.2670225664463395</v>
+        <v>0.2408600622717483</v>
       </c>
       <c r="L19">
-        <v>0.1120694547964263</v>
+        <v>0.1203931402036389</v>
       </c>
       <c r="M19">
-        <v>1.27888646018036</v>
+        <v>0.06745932528931675</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1101378557085084</v>
       </c>
       <c r="O19">
-        <v>0.4579142198662822</v>
+        <v>1.303045850274145</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.282254817941308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4654022866821421</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.190965197080601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.190570090750185</v>
+        <v>1.171498740911829</v>
       </c>
       <c r="C20">
-        <v>0.2249700109260715</v>
+        <v>0.2460309436508794</v>
       </c>
       <c r="D20">
-        <v>0.2524623750001638</v>
+        <v>0.2608833457039594</v>
       </c>
       <c r="E20">
-        <v>0.1414860276472325</v>
+        <v>0.1425253742497432</v>
       </c>
       <c r="F20">
-        <v>0.6357364158491876</v>
+        <v>0.5978652769248001</v>
       </c>
       <c r="G20">
-        <v>0.3345515588268881</v>
+        <v>0.3005338987223141</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001605379322042744</v>
+        <v>0.001979597923746468</v>
       </c>
       <c r="J20">
-        <v>0.2991495849952557</v>
+        <v>0.3014242790544941</v>
       </c>
       <c r="K20">
-        <v>0.2645863760780074</v>
+        <v>0.2372464171766513</v>
       </c>
       <c r="L20">
-        <v>0.1141510632107057</v>
+        <v>0.1182396350046524</v>
       </c>
       <c r="M20">
-        <v>1.326823443211111</v>
+        <v>0.06738758527779432</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1120447695744673</v>
       </c>
       <c r="O20">
-        <v>0.4756730828297151</v>
+        <v>1.351749611423202</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.283574632454119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4836254962789255</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.183684468362614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.337705720829661</v>
+        <v>1.315020022719068</v>
       </c>
       <c r="C21">
-        <v>0.2494499306196474</v>
+        <v>0.2726416694378599</v>
       </c>
       <c r="D21">
-        <v>0.2803665290989272</v>
+        <v>0.2951378283315904</v>
       </c>
       <c r="E21">
-        <v>0.1543248937733708</v>
+        <v>0.1564471900572357</v>
       </c>
       <c r="F21">
-        <v>0.6580267792281518</v>
+        <v>0.5979282559603192</v>
       </c>
       <c r="G21">
-        <v>0.3417806788145157</v>
+        <v>0.3547979799011785</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001907050946524436</v>
+        <v>0.002357529700489636</v>
       </c>
       <c r="J21">
-        <v>0.2964310240267594</v>
+        <v>0.2438176114848325</v>
       </c>
       <c r="K21">
-        <v>0.25755837213147</v>
+        <v>0.2226929882744599</v>
       </c>
       <c r="L21">
-        <v>0.1214318770909131</v>
+        <v>0.1104857906800767</v>
       </c>
       <c r="M21">
-        <v>1.487208483440639</v>
+        <v>0.06642605734630003</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1183932733453759</v>
       </c>
       <c r="O21">
-        <v>0.5353089227749166</v>
+        <v>1.512060562672275</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.293573276003897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5449811923629539</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.139225551513334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.435284477164203</v>
+        <v>1.410325416346637</v>
       </c>
       <c r="C22">
-        <v>0.2639573390457173</v>
+        <v>0.2881718697692293</v>
       </c>
       <c r="D22">
-        <v>0.2984300620672258</v>
+        <v>0.3178166717656978</v>
       </c>
       <c r="E22">
-        <v>0.1628402086596594</v>
+        <v>0.1657577245890494</v>
       </c>
       <c r="F22">
-        <v>0.6752438398783411</v>
+        <v>0.5990889759820561</v>
       </c>
       <c r="G22">
-        <v>0.3485077086500183</v>
+        <v>0.3995020714061894</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002039004508781694</v>
+        <v>0.002414051932132288</v>
       </c>
       <c r="J22">
-        <v>0.2957386093288008</v>
+        <v>0.2144607610897289</v>
       </c>
       <c r="K22">
-        <v>0.2543763255085807</v>
+        <v>0.2140142848451578</v>
       </c>
       <c r="L22">
-        <v>0.1264680841198924</v>
+        <v>0.1059830450376502</v>
       </c>
       <c r="M22">
-        <v>1.590808651999595</v>
+        <v>0.0663054133814871</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1227653183890354</v>
       </c>
       <c r="O22">
-        <v>0.5740612535798917</v>
+        <v>1.615279929257184</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.306617007726871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5848735641590181</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.113027572551914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.384591739557521</v>
+        <v>1.360528279413785</v>
       </c>
       <c r="C23">
-        <v>0.2546153095732535</v>
+        <v>0.2786932743889565</v>
       </c>
       <c r="D23">
-        <v>0.288403604277832</v>
+        <v>0.3047334717263226</v>
       </c>
       <c r="E23">
-        <v>0.1582419643711859</v>
+        <v>0.1606211165627514</v>
       </c>
       <c r="F23">
-        <v>0.6675628688401218</v>
+        <v>0.6018688830875547</v>
       </c>
       <c r="G23">
-        <v>0.3461361063429678</v>
+        <v>0.3703702365903752</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001649811592730366</v>
+        <v>0.002011109851440374</v>
       </c>
       <c r="J23">
-        <v>0.2967354799758226</v>
+        <v>0.2337722131278142</v>
       </c>
       <c r="K23">
-        <v>0.2570136107913896</v>
+        <v>0.2200845211492926</v>
       </c>
       <c r="L23">
-        <v>0.1238610591958889</v>
+        <v>0.1088142662357985</v>
       </c>
       <c r="M23">
-        <v>1.534136073035228</v>
+        <v>0.06699155121235734</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1205778839275737</v>
       </c>
       <c r="O23">
-        <v>0.5529599883081602</v>
+        <v>1.559347654096626</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.303553250727376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5631332265849736</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.135430377057276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.19027966204564</v>
+        <v>1.171229653173697</v>
       </c>
       <c r="C24">
-        <v>0.2221518912597986</v>
+        <v>0.242952914352017</v>
       </c>
       <c r="D24">
-        <v>0.2514485031172029</v>
+        <v>0.2598060730070557</v>
       </c>
       <c r="E24">
-        <v>0.1412206997073007</v>
+        <v>0.1422506985331253</v>
       </c>
       <c r="F24">
-        <v>0.6378554128203788</v>
+        <v>0.6000737564863599</v>
       </c>
       <c r="G24">
-        <v>0.3364219051030233</v>
+        <v>0.3019403107001892</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001117402885508767</v>
+        <v>0.001391295709862739</v>
       </c>
       <c r="J24">
-        <v>0.3002282976766679</v>
+        <v>0.3029581772376631</v>
       </c>
       <c r="K24">
-        <v>0.2662194550752943</v>
+        <v>0.2387552369384913</v>
       </c>
       <c r="L24">
-        <v>0.1141853085585396</v>
+        <v>0.1188318248909876</v>
       </c>
       <c r="M24">
-        <v>1.322129472911087</v>
+        <v>0.06790790656389767</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1120853569903915</v>
       </c>
       <c r="O24">
-        <v>0.4740883020936337</v>
+        <v>1.347027088000459</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.289792691457492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4820194980537309</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.189965126516029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9804337807229047</v>
+        <v>0.9694296966570448</v>
       </c>
       <c r="C25">
-        <v>0.1876850482574639</v>
+        <v>0.1995290537812764</v>
       </c>
       <c r="D25">
-        <v>0.2123777980950621</v>
+        <v>0.2184830329525198</v>
       </c>
       <c r="E25">
-        <v>0.1234983031456949</v>
+        <v>0.1242984861937231</v>
       </c>
       <c r="F25">
-        <v>0.6097584554572819</v>
+        <v>0.5794860106417019</v>
       </c>
       <c r="G25">
-        <v>0.3286225270766678</v>
+        <v>0.2943062924609521</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001486456066155384</v>
+        <v>0.001457519325901657</v>
       </c>
       <c r="J25">
-        <v>0.3056096202216452</v>
+        <v>0.313474460728564</v>
       </c>
       <c r="K25">
-        <v>0.2777847809040779</v>
+        <v>0.2525942364777158</v>
       </c>
       <c r="L25">
-        <v>0.1044427019750529</v>
+        <v>0.1280989072983481</v>
       </c>
       <c r="M25">
-        <v>1.093995333819407</v>
+        <v>0.06754885788054921</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1028565042817604</v>
       </c>
       <c r="O25">
-        <v>0.3896948323910507</v>
+        <v>1.112761637096639</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.283979749049095</v>
+        <v>0.3955567918472269</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.201071558389387</v>
       </c>
     </row>
   </sheetData>
